--- a/outputs/house_consistency_matrix.xlsx
+++ b/outputs/house_consistency_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_consistency_matrix.xlsx
+++ b/outputs/house_consistency_matrix.xlsx
@@ -714,13 +714,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -756,13 +753,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -784,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.72727272727272729</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -840,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -854,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +862,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -896,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -910,10 +904,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -924,13 +918,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +974,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>0.69230769230769229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,10 +991,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1002,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
       <c r="D24">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,10 +1030,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1053,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,10 +1058,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1078,13 +1072,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,13 +1086,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,13 +1100,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,13 +1128,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,10 +1142,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1162,13 +1156,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,10 +1170,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1190,10 +1184,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>0.5</v>
@@ -1204,10 +1198,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1218,13 +1212,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,10 +1226,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1249,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,13 +1254,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,13 +1268,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,13 +1282,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,13 +1296,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,10 +1310,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1341,10 +1335,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1355,13 +1349,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1363,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,10 +1377,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1397,13 +1391,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,13 +1413,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,10 +1455,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1481,9 +1472,6 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
         <v>0</v>
       </c>
     </row>
@@ -1492,13 +1480,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,10 +1494,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1520,13 +1508,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,10 +1522,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1548,13 +1536,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,13 +1550,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,13 +1564,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,13 +1578,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,13 +1606,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,13 +1628,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,13 +1656,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,10 +1684,10 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,13 +1695,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,13 +1709,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>0.84615384615384615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,10 +1723,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1752,10 +1737,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1766,13 +1751,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,13 +1762,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>0.72727272727272729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,13 +1776,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,10 +1815,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1847,13 +1829,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,10 +1843,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1875,10 +1857,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1889,10 +1871,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1903,10 +1885,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1917,13 +1899,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,13 +1924,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,10 +1938,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1984,13 +1966,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,13 +1980,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,13 +1994,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>6</v>
-      </c>
-      <c r="D96">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,13 +2005,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>0.7142857142857143</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,10 +2019,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2054,10 +2033,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2068,10 +2047,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2082,13 +2061,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>0.63636363636363635</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
